--- a/Code/Results/Cases/Case_2_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007162552224431</v>
+        <v>1.040195092393488</v>
       </c>
       <c r="D2">
-        <v>1.028861443205145</v>
+        <v>1.047401966612694</v>
       </c>
       <c r="E2">
-        <v>1.027218542419059</v>
+        <v>1.054879100019467</v>
       </c>
       <c r="F2">
-        <v>1.036145943860733</v>
+        <v>1.061051016095784</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052588555652016</v>
+        <v>1.040839654749264</v>
       </c>
       <c r="J2">
-        <v>1.029131122907468</v>
+        <v>1.045283012429298</v>
       </c>
       <c r="K2">
-        <v>1.039932818581884</v>
+        <v>1.050164705313095</v>
       </c>
       <c r="L2">
-        <v>1.038311268914883</v>
+        <v>1.057621095939411</v>
       </c>
       <c r="M2">
-        <v>1.047123669047428</v>
+        <v>1.063776128619576</v>
       </c>
       <c r="N2">
-        <v>1.013264732533011</v>
+        <v>1.018958037173192</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012665726319356</v>
+        <v>1.041332089300561</v>
       </c>
       <c r="D3">
-        <v>1.032984337548851</v>
+        <v>1.048265167657448</v>
       </c>
       <c r="E3">
-        <v>1.03170476925017</v>
+        <v>1.055880843312294</v>
       </c>
       <c r="F3">
-        <v>1.040777023864612</v>
+        <v>1.062058665891918</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05429853551088</v>
+        <v>1.041100775713891</v>
       </c>
       <c r="J3">
-        <v>1.032816966582746</v>
+        <v>1.046064590520247</v>
       </c>
       <c r="K3">
-        <v>1.043211880077282</v>
+        <v>1.050839610028396</v>
       </c>
       <c r="L3">
-        <v>1.041947437304577</v>
+        <v>1.058435688693961</v>
       </c>
       <c r="M3">
-        <v>1.050913443081453</v>
+        <v>1.06459783674976</v>
       </c>
       <c r="N3">
-        <v>1.014519606610872</v>
+        <v>1.0192211469873</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016142464784647</v>
+        <v>1.042067651974202</v>
       </c>
       <c r="D4">
-        <v>1.035591090297624</v>
+        <v>1.048823381157496</v>
       </c>
       <c r="E4">
-        <v>1.034550316714966</v>
+        <v>1.056529693120301</v>
       </c>
       <c r="F4">
-        <v>1.043709804212513</v>
+        <v>1.062710884015903</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055365222878214</v>
+        <v>1.04126797222174</v>
       </c>
       <c r="J4">
-        <v>1.035142068159858</v>
+        <v>1.046569634273503</v>
       </c>
       <c r="K4">
-        <v>1.04527813117767</v>
+        <v>1.051275343599104</v>
       </c>
       <c r="L4">
-        <v>1.044248893175671</v>
+        <v>1.058962825421964</v>
       </c>
       <c r="M4">
-        <v>1.053307829129258</v>
+        <v>1.065129124826297</v>
       </c>
       <c r="N4">
-        <v>1.015310829280132</v>
+        <v>1.019391061065652</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017584773607936</v>
+        <v>1.042376847385697</v>
       </c>
       <c r="D5">
-        <v>1.036672899287794</v>
+        <v>1.049057973633118</v>
       </c>
       <c r="E5">
-        <v>1.035733400172431</v>
+        <v>1.056802626057011</v>
       </c>
       <c r="F5">
-        <v>1.044928053708893</v>
+        <v>1.062985124522646</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055804402934334</v>
+        <v>1.04133783865781</v>
       </c>
       <c r="J5">
-        <v>1.036105737381386</v>
+        <v>1.046781789781976</v>
       </c>
       <c r="K5">
-        <v>1.046133955883575</v>
+        <v>1.051458292542017</v>
       </c>
       <c r="L5">
-        <v>1.045204583700418</v>
+        <v>1.05918444324276</v>
       </c>
       <c r="M5">
-        <v>1.05430108526218</v>
+        <v>1.065352379558982</v>
       </c>
       <c r="N5">
-        <v>1.015638664679904</v>
+        <v>1.019462412598731</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017825834662352</v>
+        <v>1.042428760620346</v>
       </c>
       <c r="D6">
-        <v>1.036853729891231</v>
+        <v>1.049097358016481</v>
       </c>
       <c r="E6">
-        <v>1.035931287152681</v>
+        <v>1.056848461864913</v>
       </c>
       <c r="F6">
-        <v>1.045131758222243</v>
+        <v>1.063031173520023</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055877607982646</v>
+        <v>1.041349544732216</v>
       </c>
       <c r="J6">
-        <v>1.036266747156366</v>
+        <v>1.046817401961901</v>
       </c>
       <c r="K6">
-        <v>1.046276913417189</v>
+        <v>1.051488996783236</v>
       </c>
       <c r="L6">
-        <v>1.045364366864693</v>
+        <v>1.059221654403221</v>
       </c>
       <c r="M6">
-        <v>1.054467089016599</v>
+        <v>1.065389859214813</v>
       </c>
       <c r="N6">
-        <v>1.01569343346453</v>
+        <v>1.019474388123274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016161811792412</v>
+        <v>1.042071783595413</v>
       </c>
       <c r="D7">
-        <v>1.035605600072352</v>
+        <v>1.048826516110143</v>
       </c>
       <c r="E7">
-        <v>1.034566176244266</v>
+        <v>1.056533339449104</v>
       </c>
       <c r="F7">
-        <v>1.043726139490372</v>
+        <v>1.062714548242587</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055371127245952</v>
+        <v>1.041268907442668</v>
       </c>
       <c r="J7">
-        <v>1.03515499831058</v>
+        <v>1.04657246975345</v>
       </c>
       <c r="K7">
-        <v>1.045289616556483</v>
+        <v>1.051277789089216</v>
       </c>
       <c r="L7">
-        <v>1.044261709097172</v>
+        <v>1.058965786652921</v>
       </c>
       <c r="M7">
-        <v>1.053321152849684</v>
+        <v>1.065132108355258</v>
       </c>
       <c r="N7">
-        <v>1.015315228446262</v>
+        <v>1.019392014784048</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009040329624721</v>
+        <v>1.040579377470857</v>
       </c>
       <c r="D8">
-        <v>1.030267769163562</v>
+        <v>1.047693758748971</v>
       </c>
       <c r="E8">
-        <v>1.028746893471457</v>
+        <v>1.05521750806609</v>
       </c>
       <c r="F8">
-        <v>1.037724624347196</v>
+        <v>1.061391514263355</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053174856142709</v>
+        <v>1.040928267425864</v>
       </c>
       <c r="J8">
-        <v>1.030389502181559</v>
+        <v>1.045547293293152</v>
       </c>
       <c r="K8">
-        <v>1.041052777397194</v>
+        <v>1.050392994351834</v>
       </c>
       <c r="L8">
-        <v>1.039551055379973</v>
+        <v>1.057896382810404</v>
       </c>
       <c r="M8">
-        <v>1.048416733551658</v>
+        <v>1.064053913963945</v>
       </c>
       <c r="N8">
-        <v>1.013693232284486</v>
+        <v>1.019047025841905</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9958059842398784</v>
+        <v>1.037948376706772</v>
       </c>
       <c r="D9">
-        <v>1.020368270119065</v>
+        <v>1.045695136023645</v>
       </c>
       <c r="E9">
-        <v>1.018027340022864</v>
+        <v>1.052903873997793</v>
       </c>
       <c r="F9">
-        <v>1.026631817145084</v>
+        <v>1.059061708931314</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048987063659875</v>
+        <v>1.040314494802969</v>
       </c>
       <c r="J9">
-        <v>1.021507718282194</v>
+        <v>1.043735511185649</v>
       </c>
       <c r="K9">
-        <v>1.033139309222484</v>
+        <v>1.048826408026867</v>
       </c>
       <c r="L9">
-        <v>1.030834553708622</v>
+        <v>1.056012277562061</v>
       </c>
       <c r="M9">
-        <v>1.039307099008632</v>
+        <v>1.062150847240377</v>
       </c>
       <c r="N9">
-        <v>1.010667521529868</v>
+        <v>1.01843654143169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9864606509549337</v>
+        <v>1.036193518298355</v>
       </c>
       <c r="D10">
-        <v>1.013397343891641</v>
+        <v>1.044361008244942</v>
       </c>
       <c r="E10">
-        <v>1.010528913806057</v>
+        <v>1.05136484732638</v>
       </c>
       <c r="F10">
-        <v>1.018845847617985</v>
+        <v>1.05750955428102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0459619512936</v>
+        <v>1.039896228055267</v>
       </c>
       <c r="J10">
-        <v>1.0152219418603</v>
+        <v>1.042524083876302</v>
       </c>
       <c r="K10">
-        <v>1.027528846232924</v>
+        <v>1.047776997509234</v>
       </c>
       <c r="L10">
-        <v>1.024710632532504</v>
+        <v>1.054756432610095</v>
       </c>
       <c r="M10">
-        <v>1.032882972010977</v>
+        <v>1.06088002193519</v>
       </c>
       <c r="N10">
-        <v>1.008524847790821</v>
+        <v>1.01802782322683</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.982274780752723</v>
+        <v>1.035433428019863</v>
       </c>
       <c r="D11">
-        <v>1.010281050533697</v>
+        <v>1.043782910706737</v>
       </c>
       <c r="E11">
-        <v>1.007188836243761</v>
+        <v>1.050699239517921</v>
       </c>
       <c r="F11">
-        <v>1.015371157035755</v>
+        <v>1.056837703402254</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044591846486261</v>
+        <v>1.039712959804063</v>
       </c>
       <c r="J11">
-        <v>1.012404003936712</v>
+        <v>1.0419986707047</v>
       </c>
       <c r="K11">
-        <v>1.025011651294102</v>
+        <v>1.047321399503716</v>
       </c>
       <c r="L11">
-        <v>1.021976443199041</v>
+        <v>1.054212692455498</v>
       </c>
       <c r="M11">
-        <v>1.030008903181012</v>
+        <v>1.060329238979471</v>
       </c>
       <c r="N11">
-        <v>1.007564076686776</v>
+        <v>1.017850433209514</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9806975939427741</v>
+        <v>1.03515106154566</v>
       </c>
       <c r="D12">
-        <v>1.009107907927226</v>
+        <v>1.043568117672588</v>
       </c>
       <c r="E12">
-        <v>1.005933274954924</v>
+        <v>1.050452123548939</v>
       </c>
       <c r="F12">
-        <v>1.014063988394301</v>
+        <v>1.056588184393812</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04407342479901</v>
+        <v>1.039644561877362</v>
       </c>
       <c r="J12">
-        <v>1.011341943190107</v>
+        <v>1.041803379593206</v>
       </c>
       <c r="K12">
-        <v>1.024062670590641</v>
+        <v>1.047151990179599</v>
       </c>
       <c r="L12">
-        <v>1.020947678802949</v>
+        <v>1.054010730509916</v>
       </c>
       <c r="M12">
-        <v>1.028926615259961</v>
+        <v>1.060124577337455</v>
       </c>
       <c r="N12">
-        <v>1.007201948591553</v>
+        <v>1.017784480623209</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9810369426835994</v>
+        <v>1.03521163172218</v>
       </c>
       <c r="D13">
-        <v>1.009360273034109</v>
+        <v>1.043614194308257</v>
       </c>
       <c r="E13">
-        <v>1.006203287072283</v>
+        <v>1.050505125313187</v>
       </c>
       <c r="F13">
-        <v>1.014345144650748</v>
+        <v>1.056641705425901</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044185065862897</v>
+        <v>1.039659248124146</v>
       </c>
       <c r="J13">
-        <v>1.011570469027907</v>
+        <v>1.041845276056973</v>
       </c>
       <c r="K13">
-        <v>1.024266876303743</v>
+        <v>1.047188337200675</v>
       </c>
       <c r="L13">
-        <v>1.02116896109545</v>
+        <v>1.054054051699951</v>
       </c>
       <c r="M13">
-        <v>1.029159450774674</v>
+        <v>1.060168481410508</v>
       </c>
       <c r="N13">
-        <v>1.007279869204055</v>
+        <v>1.017798630485499</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9821448751125488</v>
+        <v>1.035410088242597</v>
       </c>
       <c r="D14">
-        <v>1.010184402252948</v>
+        <v>1.043765157109998</v>
       </c>
       <c r="E14">
-        <v>1.007085360766668</v>
+        <v>1.050678810378104</v>
       </c>
       <c r="F14">
-        <v>1.015263448982035</v>
+        <v>1.056817077342728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044549190249573</v>
+        <v>1.039707312618503</v>
       </c>
       <c r="J14">
-        <v>1.012316532391205</v>
+        <v>1.041982530520319</v>
       </c>
       <c r="K14">
-        <v>1.024933498286607</v>
+        <v>1.047307399748049</v>
       </c>
       <c r="L14">
-        <v>1.021891678462246</v>
+        <v>1.054195998068007</v>
       </c>
       <c r="M14">
-        <v>1.029919746612792</v>
+        <v>1.060312323142123</v>
       </c>
       <c r="N14">
-        <v>1.007534252093892</v>
+        <v>1.017844982814169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9828244994657244</v>
+        <v>1.035532359164554</v>
       </c>
       <c r="D15">
-        <v>1.010690077994964</v>
+        <v>1.043858162074465</v>
       </c>
       <c r="E15">
-        <v>1.007626831733534</v>
+        <v>1.050785839436448</v>
       </c>
       <c r="F15">
-        <v>1.015827027239831</v>
+        <v>1.056925134579097</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044772265597696</v>
+        <v>1.039736883814043</v>
       </c>
       <c r="J15">
-        <v>1.012774143734565</v>
+        <v>1.042067080381548</v>
       </c>
       <c r="K15">
-        <v>1.025342348573549</v>
+        <v>1.047380734263121</v>
       </c>
       <c r="L15">
-        <v>1.022335199850194</v>
+        <v>1.054283456885021</v>
       </c>
       <c r="M15">
-        <v>1.030386211282014</v>
+        <v>1.060400938662223</v>
       </c>
       <c r="N15">
-        <v>1.007690280033613</v>
+        <v>1.017873533790752</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9867353986660092</v>
+        <v>1.03624395813556</v>
       </c>
       <c r="D16">
-        <v>1.013602024494684</v>
+        <v>1.044399366001843</v>
       </c>
       <c r="E16">
-        <v>1.010748544466652</v>
+        <v>1.051409038405517</v>
       </c>
       <c r="F16">
-        <v>1.019074191893018</v>
+        <v>1.057554147909587</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046051573881265</v>
+        <v>1.03990834553923</v>
       </c>
       <c r="J16">
-        <v>1.015406857621601</v>
+        <v>1.042558935717312</v>
       </c>
       <c r="K16">
-        <v>1.027693988080598</v>
+        <v>1.047807208825793</v>
       </c>
       <c r="L16">
-        <v>1.024890289304845</v>
+        <v>1.054792519885488</v>
       </c>
       <c r="M16">
-        <v>1.03307169709729</v>
+        <v>1.060916564888993</v>
       </c>
       <c r="N16">
-        <v>1.008587891140625</v>
+        <v>1.018039587323229</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9891503344853063</v>
+        <v>1.036690264214891</v>
       </c>
       <c r="D17">
-        <v>1.0154017970821</v>
+        <v>1.044738738742221</v>
       </c>
       <c r="E17">
-        <v>1.012681142499767</v>
+        <v>1.051800169135792</v>
       </c>
       <c r="F17">
-        <v>1.021082717828466</v>
+        <v>1.05794877617338</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046837618980237</v>
+        <v>1.040015321713356</v>
       </c>
       <c r="J17">
-        <v>1.017031930201277</v>
+        <v>1.042867233747827</v>
       </c>
       <c r="K17">
-        <v>1.029145060657295</v>
+        <v>1.048074404618383</v>
       </c>
       <c r="L17">
-        <v>1.026470419644777</v>
+        <v>1.055111854773167</v>
       </c>
       <c r="M17">
-        <v>1.034730919828619</v>
+        <v>1.061239867716192</v>
       </c>
       <c r="N17">
-        <v>1.009141905560409</v>
+        <v>1.018143637862102</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9905455913553632</v>
+        <v>1.036950565377305</v>
       </c>
       <c r="D18">
-        <v>1.016442199911428</v>
+        <v>1.044936649429597</v>
       </c>
       <c r="E18">
-        <v>1.013799465782549</v>
+        <v>1.052028386342981</v>
       </c>
       <c r="F18">
-        <v>1.022244359983496</v>
+        <v>1.058178979550153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047290329223638</v>
+        <v>1.040077511086003</v>
       </c>
       <c r="J18">
-        <v>1.017970595269149</v>
+        <v>1.043046976103239</v>
       </c>
       <c r="K18">
-        <v>1.029983029332642</v>
+        <v>1.0482301399895</v>
       </c>
       <c r="L18">
-        <v>1.027384179170624</v>
+        <v>1.055298122138353</v>
       </c>
       <c r="M18">
-        <v>1.035689864351683</v>
+        <v>1.061428395855512</v>
       </c>
       <c r="N18">
-        <v>1.009461892396458</v>
+        <v>1.018204289002337</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9910191178951696</v>
+        <v>1.03703931771871</v>
       </c>
       <c r="D19">
-        <v>1.016795386871357</v>
+        <v>1.04500412512906</v>
       </c>
       <c r="E19">
-        <v>1.014179296941762</v>
+        <v>1.052106215616696</v>
       </c>
       <c r="F19">
-        <v>1.02263880000017</v>
+        <v>1.058257476922001</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047443725173749</v>
+        <v>1.040098680771902</v>
       </c>
       <c r="J19">
-        <v>1.018289119499782</v>
+        <v>1.043108249594026</v>
       </c>
       <c r="K19">
-        <v>1.030267350069018</v>
+        <v>1.048283222156407</v>
       </c>
       <c r="L19">
-        <v>1.027694429317396</v>
+        <v>1.055361635298287</v>
       </c>
       <c r="M19">
-        <v>1.036015362891818</v>
+        <v>1.061492670783403</v>
       </c>
       <c r="N19">
-        <v>1.009570472272226</v>
+        <v>1.018224962729243</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.988892623976885</v>
+        <v>1.036642382042058</v>
       </c>
       <c r="D20">
-        <v>1.015209674475401</v>
+        <v>1.044702331364613</v>
       </c>
       <c r="E20">
-        <v>1.012474722827008</v>
+        <v>1.051758196516983</v>
       </c>
       <c r="F20">
-        <v>1.020868252603957</v>
+        <v>1.057906433876827</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046753884459618</v>
+        <v>1.040003865698853</v>
       </c>
       <c r="J20">
-        <v>1.016858534463509</v>
+        <v>1.042834164841149</v>
       </c>
       <c r="K20">
-        <v>1.028990250428343</v>
+        <v>1.048045748977718</v>
       </c>
       <c r="L20">
-        <v>1.026301709505803</v>
+        <v>1.055077592672751</v>
       </c>
       <c r="M20">
-        <v>1.034553822463832</v>
+        <v>1.061205185444363</v>
       </c>
       <c r="N20">
-        <v>1.0090827940375</v>
+        <v>1.018132478339077</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9818192463458061</v>
+        <v>1.035351648723143</v>
       </c>
       <c r="D21">
-        <v>1.009942155454377</v>
+        <v>1.043720704035921</v>
       </c>
       <c r="E21">
-        <v>1.006826031218409</v>
+        <v>1.050627661131004</v>
       </c>
       <c r="F21">
-        <v>1.014993495500249</v>
+        <v>1.05676543368229</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044442230919646</v>
+        <v>1.039693167765388</v>
       </c>
       <c r="J21">
-        <v>1.012097266832964</v>
+        <v>1.041942116074142</v>
       </c>
       <c r="K21">
-        <v>1.024737587379491</v>
+        <v>1.047272343764281</v>
       </c>
       <c r="L21">
-        <v>1.021679226146195</v>
+        <v>1.054154198197464</v>
       </c>
       <c r="M21">
-        <v>1.02969627228949</v>
+        <v>1.060269967445399</v>
       </c>
       <c r="N21">
-        <v>1.007459490278486</v>
+        <v>1.017831334921865</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9772417042912924</v>
+        <v>1.034539909724409</v>
       </c>
       <c r="D22">
-        <v>1.006539416338774</v>
+        <v>1.043103157986656</v>
       </c>
       <c r="E22">
-        <v>1.003187718122494</v>
+        <v>1.049917545340262</v>
       </c>
       <c r="F22">
-        <v>1.011203703595294</v>
+        <v>1.056048251676691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042933560171176</v>
+        <v>1.039495945421835</v>
       </c>
       <c r="J22">
-        <v>1.009014331087089</v>
+        <v>1.041380501473885</v>
       </c>
       <c r="K22">
-        <v>1.021982429788316</v>
+        <v>1.046785032031505</v>
       </c>
       <c r="L22">
-        <v>1.018696289095137</v>
+        <v>1.053573666007784</v>
       </c>
       <c r="M22">
-        <v>1.026556432983651</v>
+        <v>1.05968151709121</v>
       </c>
       <c r="N22">
-        <v>1.006408282839672</v>
+        <v>1.01764163514046</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9796812070451397</v>
+        <v>1.034970247671703</v>
       </c>
       <c r="D23">
-        <v>1.008352209594438</v>
+        <v>1.043430564786394</v>
       </c>
       <c r="E23">
-        <v>1.005125002457023</v>
+        <v>1.05029392509354</v>
       </c>
       <c r="F23">
-        <v>1.013222206986502</v>
+        <v>1.056428423541788</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043738734927486</v>
+        <v>1.039600674381546</v>
       </c>
       <c r="J23">
-        <v>1.010657446121504</v>
+        <v>1.041678295078311</v>
       </c>
       <c r="K23">
-        <v>1.023450982308469</v>
+        <v>1.047043463962825</v>
       </c>
       <c r="L23">
-        <v>1.020285136199709</v>
+        <v>1.053881413072815</v>
       </c>
       <c r="M23">
-        <v>1.028229349081604</v>
+        <v>1.059993507667196</v>
       </c>
       <c r="N23">
-        <v>1.006968552975334</v>
+        <v>1.01774223263865</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9890091133632264</v>
+        <v>1.036664018001297</v>
       </c>
       <c r="D24">
-        <v>1.015296515313124</v>
+        <v>1.044718782413891</v>
       </c>
       <c r="E24">
-        <v>1.012568022517282</v>
+        <v>1.051777161897858</v>
       </c>
       <c r="F24">
-        <v>1.020965190719395</v>
+        <v>1.057925566465604</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046791738302682</v>
+        <v>1.040009042821341</v>
       </c>
       <c r="J24">
-        <v>1.016936912935545</v>
+        <v>1.042849107511846</v>
       </c>
       <c r="K24">
-        <v>1.029060228461419</v>
+        <v>1.048058697584701</v>
       </c>
       <c r="L24">
-        <v>1.026377966723985</v>
+        <v>1.055093074226397</v>
       </c>
       <c r="M24">
-        <v>1.034633872432719</v>
+        <v>1.06122085702114</v>
       </c>
       <c r="N24">
-        <v>1.00910951373477</v>
+        <v>1.01813752097002</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9993146394223021</v>
+        <v>1.038628700454903</v>
       </c>
       <c r="D25">
-        <v>1.022989888075501</v>
+        <v>1.046212130344591</v>
       </c>
       <c r="E25">
-        <v>1.020857595008658</v>
+        <v>1.053501406359255</v>
       </c>
       <c r="F25">
-        <v>1.029565101387864</v>
+        <v>1.05966383507319</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050109283801295</v>
+        <v>1.04047477145699</v>
       </c>
       <c r="J25">
-        <v>1.023865090719042</v>
+        <v>1.044204528806925</v>
       </c>
       <c r="K25">
-        <v>1.035241498560731</v>
+        <v>1.049232292819382</v>
       </c>
       <c r="L25">
-        <v>1.033140527627146</v>
+        <v>1.056499324910168</v>
       </c>
       <c r="M25">
-        <v>1.041721160847937</v>
+        <v>1.062643208513634</v>
       </c>
       <c r="N25">
-        <v>1.01147085924765</v>
+        <v>1.018594670897023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040195092393488</v>
+        <v>1.007162552224431</v>
       </c>
       <c r="D2">
-        <v>1.047401966612694</v>
+        <v>1.028861443205146</v>
       </c>
       <c r="E2">
-        <v>1.054879100019467</v>
+        <v>1.02721854241906</v>
       </c>
       <c r="F2">
-        <v>1.061051016095784</v>
+        <v>1.036145943860734</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040839654749264</v>
+        <v>1.052588555652016</v>
       </c>
       <c r="J2">
-        <v>1.045283012429298</v>
+        <v>1.029131122907468</v>
       </c>
       <c r="K2">
-        <v>1.050164705313095</v>
+        <v>1.039932818581884</v>
       </c>
       <c r="L2">
-        <v>1.057621095939411</v>
+        <v>1.038311268914883</v>
       </c>
       <c r="M2">
-        <v>1.063776128619576</v>
+        <v>1.047123669047428</v>
       </c>
       <c r="N2">
-        <v>1.018958037173192</v>
+        <v>1.013264732533011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041332089300561</v>
+        <v>1.012665726319356</v>
       </c>
       <c r="D3">
-        <v>1.048265167657448</v>
+        <v>1.032984337548851</v>
       </c>
       <c r="E3">
-        <v>1.055880843312294</v>
+        <v>1.031704769250169</v>
       </c>
       <c r="F3">
-        <v>1.062058665891918</v>
+        <v>1.040777023864612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041100775713891</v>
+        <v>1.05429853551088</v>
       </c>
       <c r="J3">
-        <v>1.046064590520247</v>
+        <v>1.032816966582747</v>
       </c>
       <c r="K3">
-        <v>1.050839610028396</v>
+        <v>1.043211880077283</v>
       </c>
       <c r="L3">
-        <v>1.058435688693961</v>
+        <v>1.041947437304577</v>
       </c>
       <c r="M3">
-        <v>1.06459783674976</v>
+        <v>1.050913443081453</v>
       </c>
       <c r="N3">
-        <v>1.0192211469873</v>
+        <v>1.014519606610872</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042067651974202</v>
+        <v>1.016142464784646</v>
       </c>
       <c r="D4">
-        <v>1.048823381157496</v>
+        <v>1.035591090297623</v>
       </c>
       <c r="E4">
-        <v>1.056529693120301</v>
+        <v>1.034550316714967</v>
       </c>
       <c r="F4">
-        <v>1.062710884015903</v>
+        <v>1.043709804212512</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04126797222174</v>
+        <v>1.055365222878213</v>
       </c>
       <c r="J4">
-        <v>1.046569634273503</v>
+        <v>1.035142068159857</v>
       </c>
       <c r="K4">
-        <v>1.051275343599104</v>
+        <v>1.045278131177669</v>
       </c>
       <c r="L4">
-        <v>1.058962825421964</v>
+        <v>1.044248893175671</v>
       </c>
       <c r="M4">
-        <v>1.065129124826297</v>
+        <v>1.053307829129258</v>
       </c>
       <c r="N4">
-        <v>1.019391061065652</v>
+        <v>1.015310829280132</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042376847385697</v>
+        <v>1.017584773607936</v>
       </c>
       <c r="D5">
-        <v>1.049057973633118</v>
+        <v>1.036672899287794</v>
       </c>
       <c r="E5">
-        <v>1.056802626057011</v>
+        <v>1.03573340017243</v>
       </c>
       <c r="F5">
-        <v>1.062985124522646</v>
+        <v>1.044928053708893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04133783865781</v>
+        <v>1.055804402934334</v>
       </c>
       <c r="J5">
-        <v>1.046781789781976</v>
+        <v>1.036105737381386</v>
       </c>
       <c r="K5">
-        <v>1.051458292542017</v>
+        <v>1.046133955883574</v>
       </c>
       <c r="L5">
-        <v>1.05918444324276</v>
+        <v>1.045204583700418</v>
       </c>
       <c r="M5">
-        <v>1.065352379558982</v>
+        <v>1.05430108526218</v>
       </c>
       <c r="N5">
-        <v>1.019462412598731</v>
+        <v>1.015638664679904</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042428760620346</v>
+        <v>1.017825834662353</v>
       </c>
       <c r="D6">
-        <v>1.049097358016481</v>
+        <v>1.036853729891232</v>
       </c>
       <c r="E6">
-        <v>1.056848461864913</v>
+        <v>1.035931287152682</v>
       </c>
       <c r="F6">
-        <v>1.063031173520023</v>
+        <v>1.045131758222244</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041349544732216</v>
+        <v>1.055877607982646</v>
       </c>
       <c r="J6">
-        <v>1.046817401961901</v>
+        <v>1.036266747156367</v>
       </c>
       <c r="K6">
-        <v>1.051488996783236</v>
+        <v>1.04627691341719</v>
       </c>
       <c r="L6">
-        <v>1.059221654403221</v>
+        <v>1.045364366864694</v>
       </c>
       <c r="M6">
-        <v>1.065389859214813</v>
+        <v>1.054467089016601</v>
       </c>
       <c r="N6">
-        <v>1.019474388123274</v>
+        <v>1.015693433464531</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.042071783595413</v>
+        <v>1.016161811792411</v>
       </c>
       <c r="D7">
-        <v>1.048826516110143</v>
+        <v>1.035605600072351</v>
       </c>
       <c r="E7">
-        <v>1.056533339449104</v>
+        <v>1.034566176244266</v>
       </c>
       <c r="F7">
-        <v>1.062714548242587</v>
+        <v>1.043726139490372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041268907442668</v>
+        <v>1.055371127245951</v>
       </c>
       <c r="J7">
-        <v>1.04657246975345</v>
+        <v>1.035154998310579</v>
       </c>
       <c r="K7">
-        <v>1.051277789089216</v>
+        <v>1.045289616556482</v>
       </c>
       <c r="L7">
-        <v>1.058965786652921</v>
+        <v>1.044261709097172</v>
       </c>
       <c r="M7">
-        <v>1.065132108355258</v>
+        <v>1.053321152849683</v>
       </c>
       <c r="N7">
-        <v>1.019392014784048</v>
+        <v>1.015315228446262</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040579377470857</v>
+        <v>1.009040329624721</v>
       </c>
       <c r="D8">
-        <v>1.047693758748971</v>
+        <v>1.030267769163562</v>
       </c>
       <c r="E8">
-        <v>1.05521750806609</v>
+        <v>1.028746893471457</v>
       </c>
       <c r="F8">
-        <v>1.061391514263355</v>
+        <v>1.037724624347196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040928267425864</v>
+        <v>1.053174856142708</v>
       </c>
       <c r="J8">
-        <v>1.045547293293152</v>
+        <v>1.030389502181559</v>
       </c>
       <c r="K8">
-        <v>1.050392994351834</v>
+        <v>1.041052777397194</v>
       </c>
       <c r="L8">
-        <v>1.057896382810404</v>
+        <v>1.039551055379974</v>
       </c>
       <c r="M8">
-        <v>1.064053913963945</v>
+        <v>1.048416733551658</v>
       </c>
       <c r="N8">
-        <v>1.019047025841905</v>
+        <v>1.013693232284486</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037948376706772</v>
+        <v>0.9958059842398792</v>
       </c>
       <c r="D9">
-        <v>1.045695136023645</v>
+        <v>1.020368270119066</v>
       </c>
       <c r="E9">
-        <v>1.052903873997793</v>
+        <v>1.018027340022865</v>
       </c>
       <c r="F9">
-        <v>1.059061708931314</v>
+        <v>1.026631817145085</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040314494802969</v>
+        <v>1.048987063659876</v>
       </c>
       <c r="J9">
-        <v>1.043735511185649</v>
+        <v>1.021507718282194</v>
       </c>
       <c r="K9">
-        <v>1.048826408026867</v>
+        <v>1.033139309222485</v>
       </c>
       <c r="L9">
-        <v>1.056012277562061</v>
+        <v>1.030834553708623</v>
       </c>
       <c r="M9">
-        <v>1.062150847240377</v>
+        <v>1.039307099008633</v>
       </c>
       <c r="N9">
-        <v>1.01843654143169</v>
+        <v>1.010667521529868</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036193518298355</v>
+        <v>0.9864606509549336</v>
       </c>
       <c r="D10">
-        <v>1.044361008244942</v>
+        <v>1.013397343891641</v>
       </c>
       <c r="E10">
-        <v>1.05136484732638</v>
+        <v>1.010528913806057</v>
       </c>
       <c r="F10">
-        <v>1.05750955428102</v>
+        <v>1.018845847617985</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039896228055267</v>
+        <v>1.0459619512936</v>
       </c>
       <c r="J10">
-        <v>1.042524083876302</v>
+        <v>1.0152219418603</v>
       </c>
       <c r="K10">
-        <v>1.047776997509234</v>
+        <v>1.027528846232924</v>
       </c>
       <c r="L10">
-        <v>1.054756432610095</v>
+        <v>1.024710632532504</v>
       </c>
       <c r="M10">
-        <v>1.06088002193519</v>
+        <v>1.032882972010977</v>
       </c>
       <c r="N10">
-        <v>1.01802782322683</v>
+        <v>1.008524847790821</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035433428019863</v>
+        <v>0.9822747807527237</v>
       </c>
       <c r="D11">
-        <v>1.043782910706737</v>
+        <v>1.010281050533698</v>
       </c>
       <c r="E11">
-        <v>1.050699239517921</v>
+        <v>1.007188836243761</v>
       </c>
       <c r="F11">
-        <v>1.056837703402254</v>
+        <v>1.015371157035755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039712959804063</v>
+        <v>1.044591846486262</v>
       </c>
       <c r="J11">
-        <v>1.0419986707047</v>
+        <v>1.012404003936713</v>
       </c>
       <c r="K11">
-        <v>1.047321399503716</v>
+        <v>1.025011651294103</v>
       </c>
       <c r="L11">
-        <v>1.054212692455498</v>
+        <v>1.021976443199041</v>
       </c>
       <c r="M11">
-        <v>1.060329238979471</v>
+        <v>1.030008903181013</v>
       </c>
       <c r="N11">
-        <v>1.017850433209514</v>
+        <v>1.007564076686776</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03515106154566</v>
+        <v>0.980697593942774</v>
       </c>
       <c r="D12">
-        <v>1.043568117672588</v>
+        <v>1.009107907927226</v>
       </c>
       <c r="E12">
-        <v>1.050452123548939</v>
+        <v>1.005933274954924</v>
       </c>
       <c r="F12">
-        <v>1.056588184393812</v>
+        <v>1.014063988394302</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039644561877362</v>
+        <v>1.04407342479901</v>
       </c>
       <c r="J12">
-        <v>1.041803379593206</v>
+        <v>1.011341943190107</v>
       </c>
       <c r="K12">
-        <v>1.047151990179599</v>
+        <v>1.024062670590641</v>
       </c>
       <c r="L12">
-        <v>1.054010730509916</v>
+        <v>1.02094767880295</v>
       </c>
       <c r="M12">
-        <v>1.060124577337455</v>
+        <v>1.028926615259962</v>
       </c>
       <c r="N12">
-        <v>1.017784480623209</v>
+        <v>1.007201948591553</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03521163172218</v>
+        <v>0.9810369426835993</v>
       </c>
       <c r="D13">
-        <v>1.043614194308257</v>
+        <v>1.009360273034109</v>
       </c>
       <c r="E13">
-        <v>1.050505125313187</v>
+        <v>1.006203287072283</v>
       </c>
       <c r="F13">
-        <v>1.056641705425901</v>
+        <v>1.014345144650748</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039659248124146</v>
+        <v>1.044185065862897</v>
       </c>
       <c r="J13">
-        <v>1.041845276056973</v>
+        <v>1.011570469027907</v>
       </c>
       <c r="K13">
-        <v>1.047188337200675</v>
+        <v>1.024266876303743</v>
       </c>
       <c r="L13">
-        <v>1.054054051699951</v>
+        <v>1.02116896109545</v>
       </c>
       <c r="M13">
-        <v>1.060168481410508</v>
+        <v>1.029159450774674</v>
       </c>
       <c r="N13">
-        <v>1.017798630485499</v>
+        <v>1.007279869204055</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035410088242597</v>
+        <v>0.9821448751125511</v>
       </c>
       <c r="D14">
-        <v>1.043765157109998</v>
+        <v>1.01018440225295</v>
       </c>
       <c r="E14">
-        <v>1.050678810378104</v>
+        <v>1.007085360766669</v>
       </c>
       <c r="F14">
-        <v>1.056817077342728</v>
+        <v>1.015263448982037</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039707312618503</v>
+        <v>1.044549190249574</v>
       </c>
       <c r="J14">
-        <v>1.041982530520319</v>
+        <v>1.012316532391207</v>
       </c>
       <c r="K14">
-        <v>1.047307399748049</v>
+        <v>1.02493349828661</v>
       </c>
       <c r="L14">
-        <v>1.054195998068007</v>
+        <v>1.021891678462247</v>
       </c>
       <c r="M14">
-        <v>1.060312323142123</v>
+        <v>1.029919746612794</v>
       </c>
       <c r="N14">
-        <v>1.017844982814169</v>
+        <v>1.007534252093893</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035532359164554</v>
+        <v>0.9828244994657239</v>
       </c>
       <c r="D15">
-        <v>1.043858162074465</v>
+        <v>1.010690077994964</v>
       </c>
       <c r="E15">
-        <v>1.050785839436448</v>
+        <v>1.007626831733534</v>
       </c>
       <c r="F15">
-        <v>1.056925134579097</v>
+        <v>1.01582702723983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039736883814043</v>
+        <v>1.044772265597696</v>
       </c>
       <c r="J15">
-        <v>1.042067080381548</v>
+        <v>1.012774143734565</v>
       </c>
       <c r="K15">
-        <v>1.047380734263121</v>
+        <v>1.025342348573549</v>
       </c>
       <c r="L15">
-        <v>1.054283456885021</v>
+        <v>1.022335199850194</v>
       </c>
       <c r="M15">
-        <v>1.060400938662223</v>
+        <v>1.030386211282013</v>
       </c>
       <c r="N15">
-        <v>1.017873533790752</v>
+        <v>1.007690280033613</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03624395813556</v>
+        <v>0.9867353986660089</v>
       </c>
       <c r="D16">
-        <v>1.044399366001843</v>
+        <v>1.013602024494684</v>
       </c>
       <c r="E16">
-        <v>1.051409038405517</v>
+        <v>1.010748544466652</v>
       </c>
       <c r="F16">
-        <v>1.057554147909587</v>
+        <v>1.019074191893017</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03990834553923</v>
+        <v>1.046051573881265</v>
       </c>
       <c r="J16">
-        <v>1.042558935717312</v>
+        <v>1.0154068576216</v>
       </c>
       <c r="K16">
-        <v>1.047807208825793</v>
+        <v>1.027693988080597</v>
       </c>
       <c r="L16">
-        <v>1.054792519885488</v>
+        <v>1.024890289304844</v>
       </c>
       <c r="M16">
-        <v>1.060916564888993</v>
+        <v>1.033071697097289</v>
       </c>
       <c r="N16">
-        <v>1.018039587323229</v>
+        <v>1.008587891140625</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036690264214891</v>
+        <v>0.9891503344853074</v>
       </c>
       <c r="D17">
-        <v>1.044738738742221</v>
+        <v>1.015401797082101</v>
       </c>
       <c r="E17">
-        <v>1.051800169135792</v>
+        <v>1.012681142499768</v>
       </c>
       <c r="F17">
-        <v>1.05794877617338</v>
+        <v>1.021082717828467</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040015321713356</v>
+        <v>1.046837618980238</v>
       </c>
       <c r="J17">
-        <v>1.042867233747827</v>
+        <v>1.017031930201278</v>
       </c>
       <c r="K17">
-        <v>1.048074404618383</v>
+        <v>1.029145060657296</v>
       </c>
       <c r="L17">
-        <v>1.055111854773167</v>
+        <v>1.026470419644778</v>
       </c>
       <c r="M17">
-        <v>1.061239867716192</v>
+        <v>1.03473091982862</v>
       </c>
       <c r="N17">
-        <v>1.018143637862102</v>
+        <v>1.009141905560409</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036950565377305</v>
+        <v>0.9905455913553626</v>
       </c>
       <c r="D18">
-        <v>1.044936649429597</v>
+        <v>1.016442199911427</v>
       </c>
       <c r="E18">
-        <v>1.052028386342981</v>
+        <v>1.013799465782549</v>
       </c>
       <c r="F18">
-        <v>1.058178979550153</v>
+        <v>1.022244359983496</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040077511086003</v>
+        <v>1.047290329223638</v>
       </c>
       <c r="J18">
-        <v>1.043046976103239</v>
+        <v>1.017970595269148</v>
       </c>
       <c r="K18">
-        <v>1.0482301399895</v>
+        <v>1.029983029332642</v>
       </c>
       <c r="L18">
-        <v>1.055298122138353</v>
+        <v>1.027384179170624</v>
       </c>
       <c r="M18">
-        <v>1.061428395855512</v>
+        <v>1.035689864351682</v>
       </c>
       <c r="N18">
-        <v>1.018204289002337</v>
+        <v>1.009461892396458</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03703931771871</v>
+        <v>0.9910191178951701</v>
       </c>
       <c r="D19">
-        <v>1.04500412512906</v>
+        <v>1.016795386871357</v>
       </c>
       <c r="E19">
-        <v>1.052106215616696</v>
+        <v>1.014179296941762</v>
       </c>
       <c r="F19">
-        <v>1.058257476922001</v>
+        <v>1.02263880000017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040098680771902</v>
+        <v>1.047443725173749</v>
       </c>
       <c r="J19">
-        <v>1.043108249594026</v>
+        <v>1.018289119499783</v>
       </c>
       <c r="K19">
-        <v>1.048283222156407</v>
+        <v>1.030267350069018</v>
       </c>
       <c r="L19">
-        <v>1.055361635298287</v>
+        <v>1.027694429317396</v>
       </c>
       <c r="M19">
-        <v>1.061492670783403</v>
+        <v>1.036015362891818</v>
       </c>
       <c r="N19">
-        <v>1.018224962729243</v>
+        <v>1.009570472272227</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036642382042058</v>
+        <v>0.9888926239768848</v>
       </c>
       <c r="D20">
-        <v>1.044702331364613</v>
+        <v>1.015209674475401</v>
       </c>
       <c r="E20">
-        <v>1.051758196516983</v>
+        <v>1.012474722827008</v>
       </c>
       <c r="F20">
-        <v>1.057906433876827</v>
+        <v>1.020868252603957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040003865698853</v>
+        <v>1.046753884459617</v>
       </c>
       <c r="J20">
-        <v>1.042834164841149</v>
+        <v>1.016858534463509</v>
       </c>
       <c r="K20">
-        <v>1.048045748977718</v>
+        <v>1.028990250428342</v>
       </c>
       <c r="L20">
-        <v>1.055077592672751</v>
+        <v>1.026301709505803</v>
       </c>
       <c r="M20">
-        <v>1.061205185444363</v>
+        <v>1.034553822463831</v>
       </c>
       <c r="N20">
-        <v>1.018132478339077</v>
+        <v>1.0090827940375</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035351648723143</v>
+        <v>0.9818192463458063</v>
       </c>
       <c r="D21">
-        <v>1.043720704035921</v>
+        <v>1.009942155454377</v>
       </c>
       <c r="E21">
-        <v>1.050627661131004</v>
+        <v>1.006826031218409</v>
       </c>
       <c r="F21">
-        <v>1.05676543368229</v>
+        <v>1.014993495500249</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039693167765388</v>
+        <v>1.044442230919646</v>
       </c>
       <c r="J21">
-        <v>1.041942116074142</v>
+        <v>1.012097266832964</v>
       </c>
       <c r="K21">
-        <v>1.047272343764281</v>
+        <v>1.024737587379491</v>
       </c>
       <c r="L21">
-        <v>1.054154198197464</v>
+        <v>1.021679226146195</v>
       </c>
       <c r="M21">
-        <v>1.060269967445399</v>
+        <v>1.02969627228949</v>
       </c>
       <c r="N21">
-        <v>1.017831334921865</v>
+        <v>1.007459490278486</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034539909724409</v>
+        <v>0.9772417042912908</v>
       </c>
       <c r="D22">
-        <v>1.043103157986656</v>
+        <v>1.006539416338772</v>
       </c>
       <c r="E22">
-        <v>1.049917545340262</v>
+        <v>1.003187718122493</v>
       </c>
       <c r="F22">
-        <v>1.056048251676691</v>
+        <v>1.011203703595292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039495945421835</v>
+        <v>1.042933560171175</v>
       </c>
       <c r="J22">
-        <v>1.041380501473885</v>
+        <v>1.009014331087087</v>
       </c>
       <c r="K22">
-        <v>1.046785032031505</v>
+        <v>1.021982429788315</v>
       </c>
       <c r="L22">
-        <v>1.053573666007784</v>
+        <v>1.018696289095135</v>
       </c>
       <c r="M22">
-        <v>1.05968151709121</v>
+        <v>1.02655643298365</v>
       </c>
       <c r="N22">
-        <v>1.01764163514046</v>
+        <v>1.006408282839671</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034970247671703</v>
+        <v>0.9796812070451383</v>
       </c>
       <c r="D23">
-        <v>1.043430564786394</v>
+        <v>1.008352209594437</v>
       </c>
       <c r="E23">
-        <v>1.05029392509354</v>
+        <v>1.005125002457022</v>
       </c>
       <c r="F23">
-        <v>1.056428423541788</v>
+        <v>1.013222206986501</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039600674381546</v>
+        <v>1.043738734927486</v>
       </c>
       <c r="J23">
-        <v>1.041678295078311</v>
+        <v>1.010657446121502</v>
       </c>
       <c r="K23">
-        <v>1.047043463962825</v>
+        <v>1.023450982308468</v>
       </c>
       <c r="L23">
-        <v>1.053881413072815</v>
+        <v>1.020285136199707</v>
       </c>
       <c r="M23">
-        <v>1.059993507667196</v>
+        <v>1.028229349081603</v>
       </c>
       <c r="N23">
-        <v>1.01774223263865</v>
+        <v>1.006968552975334</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036664018001297</v>
+        <v>0.9890091133632267</v>
       </c>
       <c r="D24">
-        <v>1.044718782413891</v>
+        <v>1.015296515313124</v>
       </c>
       <c r="E24">
-        <v>1.051777161897858</v>
+        <v>1.012568022517282</v>
       </c>
       <c r="F24">
-        <v>1.057925566465604</v>
+        <v>1.020965190719396</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040009042821341</v>
+        <v>1.046791738302682</v>
       </c>
       <c r="J24">
-        <v>1.042849107511846</v>
+        <v>1.016936912935545</v>
       </c>
       <c r="K24">
-        <v>1.048058697584701</v>
+        <v>1.02906022846142</v>
       </c>
       <c r="L24">
-        <v>1.055093074226397</v>
+        <v>1.026377966723985</v>
       </c>
       <c r="M24">
-        <v>1.06122085702114</v>
+        <v>1.03463387243272</v>
       </c>
       <c r="N24">
-        <v>1.01813752097002</v>
+        <v>1.00910951373477</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038628700454903</v>
+        <v>0.9993146394223018</v>
       </c>
       <c r="D25">
-        <v>1.046212130344591</v>
+        <v>1.022989888075501</v>
       </c>
       <c r="E25">
-        <v>1.053501406359255</v>
+        <v>1.020857595008658</v>
       </c>
       <c r="F25">
-        <v>1.05966383507319</v>
+        <v>1.029565101387863</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04047477145699</v>
+        <v>1.050109283801295</v>
       </c>
       <c r="J25">
-        <v>1.044204528806925</v>
+        <v>1.023865090719042</v>
       </c>
       <c r="K25">
-        <v>1.049232292819382</v>
+        <v>1.035241498560731</v>
       </c>
       <c r="L25">
-        <v>1.056499324910168</v>
+        <v>1.033140527627146</v>
       </c>
       <c r="M25">
-        <v>1.062643208513634</v>
+        <v>1.041721160847937</v>
       </c>
       <c r="N25">
-        <v>1.018594670897023</v>
+        <v>1.01147085924765</v>
       </c>
     </row>
   </sheetData>
